--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59509DFF-2E8E-BC46-AE23-C8816F683FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA30C59-D153-4BD4-839B-222BF771C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35400" yWindow="1500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="4800" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -56,6 +55,9 @@
   </si>
   <si>
     <t>Landen</t>
+  </si>
+  <si>
+    <t>Eric</t>
   </si>
 </sst>
 </file>
@@ -420,22 +422,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A24C7-8340-4F46-BF5B-ECA2B5254AA8}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -457,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,7 +470,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -479,35 +481,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44621</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44621</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
         <v>44623</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C30">
-        <f>SUM(C3:C29)</f>
-        <v>11.5</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C3:C33)</f>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA30C59-D153-4BD4-839B-222BF771C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B331D-54FE-46FD-B681-35B8DC17335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="3195" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A24C7-8340-4F46-BF5B-ECA2B5254AA8}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>44621</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,21 +508,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>44622</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,15 +530,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>44623</v>
@@ -552,41 +552,30 @@
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>44624</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44624</v>
-      </c>
-      <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34">
-        <f>SUM(C3:C33)</f>
-        <v>34.5</v>
+      <c r="C33">
+        <f>SUM(C3:C32)</f>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy Vu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B331D-54FE-46FD-B681-35B8DC17335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A354C-9176-4D55-8C5C-1E0E9A89D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Eric</t>
+  </si>
+  <si>
+    <t>Duy</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A24C7-8340-4F46-BF5B-ECA2B5254AA8}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -483,13 +486,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,74 +511,118 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>44622</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
         <v>44624</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
-        <f>SUM(C3:C32)</f>
-        <v>32.5</v>
+      <c r="C37">
+        <f>SUM(C3:C36)</f>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy Vu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A354C-9176-4D55-8C5C-1E0E9A89D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB45F92-61C8-004B-8E84-087485185EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="-31600" yWindow="860" windowWidth="28800" windowHeight="15720" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -428,19 +428,19 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -473,7 +473,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -605,24 +605,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>44624</v>
       </c>
       <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37">
         <f>SUM(C3:C36)</f>
-        <v>44.5</v>
+        <v>48.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivot\OneDrive\Desktop\Homework\EECS 448\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB45F92-61C8-004B-8E84-087485185EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9D6BE-A0A6-4D43-B735-CCE847B20E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31600" yWindow="860" windowWidth="28800" windowHeight="15720" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidan </t>
   </si>
 </sst>
 </file>
@@ -425,22 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A24C7-8340-4F46-BF5B-ECA2B5254AA8}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -473,7 +476,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -484,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -495,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -506,31 +509,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>44621</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44622</v>
@@ -539,86 +542,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>44622</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>44623</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
       <c r="B13" s="1">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>44623</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
-        <v>44624</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
-        <v>44624</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
       <c r="B17" s="1">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>44624</v>
@@ -627,13 +630,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
-        <f>SUM(C3:C36)</f>
-        <v>48.5</v>
+      <c r="C41">
+        <f>SUM(C3:C40)</f>
+        <v>57.5</v>
       </c>
     </row>
   </sheetData>
